--- a/BBDD/B172_Qf BBDD.xlsx
+++ b/BBDD/B172_Qf BBDD.xlsx
@@ -2467,6 +2467,174 @@
         <v>44562</v>
       </c>
     </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" t="n">
+        <v>114</v>
+      </c>
+      <c r="D150" s="1" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151" t="n">
+        <v>84</v>
+      </c>
+      <c r="D151" s="1" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>7</v>
+      </c>
+      <c r="B152" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" t="n">
+        <v>98</v>
+      </c>
+      <c r="D152" s="1" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>7</v>
+      </c>
+      <c r="B153" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0</v>
+      </c>
+      <c r="D153" s="1" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" t="n">
+        <v>169</v>
+      </c>
+      <c r="D154" s="1" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155" t="n">
+        <v>142</v>
+      </c>
+      <c r="D155" s="1" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>7</v>
+      </c>
+      <c r="B156" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" t="n">
+        <v>100</v>
+      </c>
+      <c r="D156" s="1" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>7</v>
+      </c>
+      <c r="B157" t="s">
+        <v>9</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0</v>
+      </c>
+      <c r="D157" s="1" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" t="n">
+        <v>171</v>
+      </c>
+      <c r="D158" s="1" t="n">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" t="n">
+        <v>98</v>
+      </c>
+      <c r="D159" s="1" t="n">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>7</v>
+      </c>
+      <c r="B160" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" t="n">
+        <v>76</v>
+      </c>
+      <c r="D160" s="1" t="n">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>7</v>
+      </c>
+      <c r="B161" t="s">
+        <v>9</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0</v>
+      </c>
+      <c r="D161" s="1" t="n">
+        <v>44652</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
